--- a/REGULAR/OJT/SUSA, NANETTE B..xlsx
+++ b/REGULAR/OJT/SUSA, NANETTE B..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5FE467-E502-4844-A6DB-608CEA73A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="297">
   <si>
     <t>PERIOD</t>
   </si>
@@ -931,7 +930,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1800,7 +1799,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,7 +1842,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1906,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1967,7 +1966,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2032,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2095,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2193,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2252,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2317,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2360,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2435,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2621,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,7 +2687,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2745,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2811,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2867,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2942,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +2985,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3051,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3107,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3205,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,7 +3268,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3335,25 +3334,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3365,13 +3364,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3380,14 +3379,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3691,7 +3690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3701,7 +3700,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3709,34 +3708,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K597"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3852" topLeftCell="A478" activePane="bottomLeft"/>
+      <pane ySplit="3855" topLeftCell="A478" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="H484" sqref="H484"/>
+      <selection pane="bottomLeft" activeCell="E491" sqref="E491"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3759,7 +3758,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3781,7 +3780,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3803,7 +3802,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3811,7 +3810,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3824,7 +3823,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3841,7 +3840,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3885,7 +3884,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.70999999999998</v>
+        <v>182.95999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3895,12 +3894,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>305.45799999999997</v>
+        <v>311.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3922,7 +3921,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>288</v>
       </c>
@@ -3942,7 +3941,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34790</v>
       </c>
@@ -3962,7 +3961,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34820</v>
       </c>
@@ -3982,7 +3981,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34851</v>
       </c>
@@ -4002,7 +4001,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34881</v>
       </c>
@@ -4022,7 +4021,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34912</v>
       </c>
@@ -4042,7 +4041,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34943</v>
       </c>
@@ -4062,7 +4061,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34973</v>
       </c>
@@ -4082,7 +4081,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35004</v>
       </c>
@@ -4102,7 +4101,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35034</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>47</v>
       </c>
@@ -4150,7 +4149,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35065</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35096</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35125</v>
       </c>
@@ -4222,7 +4221,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35156</v>
       </c>
@@ -4242,7 +4241,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35186</v>
       </c>
@@ -4262,7 +4261,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35217</v>
       </c>
@@ -4282,7 +4281,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35247</v>
       </c>
@@ -4302,7 +4301,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35278</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35309</v>
       </c>
@@ -4348,7 +4347,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35339</v>
       </c>
@@ -4368,7 +4367,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35370</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35400</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -4442,7 +4441,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>55</v>
@@ -4462,7 +4461,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>46</v>
       </c>
@@ -4484,7 +4483,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35431</v>
       </c>
@@ -4504,7 +4503,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35462</v>
       </c>
@@ -4524,7 +4523,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35490</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35521</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>60</v>
@@ -4592,7 +4591,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35551</v>
       </c>
@@ -4612,7 +4611,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35582</v>
       </c>
@@ -4632,7 +4631,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>35612</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35643</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35674</v>
       </c>
@@ -4710,7 +4709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35704</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>50</v>
@@ -4756,7 +4755,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35735</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35765</v>
       </c>
@@ -4800,7 +4799,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>45</v>
       </c>
@@ -4822,7 +4821,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35796</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>35824</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>72</v>
@@ -4868,7 +4867,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35827</v>
       </c>
@@ -4888,7 +4887,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>35855</v>
       </c>
@@ -4914,7 +4913,7 @@
         <v>35857</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -4936,7 +4935,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35886</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35916</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35947</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35977</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36008</v>
       </c>
@@ -5060,7 +5059,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36039</v>
       </c>
@@ -5080,7 +5079,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36069</v>
       </c>
@@ -5100,7 +5099,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36100</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>36104</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>54</v>
@@ -5148,7 +5147,7 @@
         <v>36125</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>79</v>
@@ -5168,7 +5167,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36130</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>36151</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>44</v>
       </c>
@@ -5216,7 +5215,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36161</v>
       </c>
@@ -5236,7 +5235,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36192</v>
       </c>
@@ -5262,7 +5261,7 @@
         <v>36196</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36220</v>
       </c>
@@ -5286,7 +5285,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36251</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>36272</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36281</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>50</v>
@@ -5360,7 +5359,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>82</v>
@@ -5382,7 +5381,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36312</v>
       </c>
@@ -5402,7 +5401,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36342</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>83</v>
@@ -5448,7 +5447,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36373</v>
       </c>
@@ -5472,7 +5471,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36404</v>
       </c>
@@ -5496,7 +5495,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36434</v>
       </c>
@@ -5516,7 +5515,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -5540,7 +5539,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -5560,7 +5559,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -5584,7 +5583,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>93</v>
@@ -5604,7 +5603,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -5626,7 +5625,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>36526</v>
       </c>
@@ -5652,7 +5651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36557</v>
       </c>
@@ -5672,7 +5671,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36586</v>
       </c>
@@ -5692,7 +5691,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36617</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36647</v>
       </c>
@@ -5740,7 +5739,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36678</v>
       </c>
@@ -5760,7 +5759,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>36708</v>
       </c>
@@ -5784,7 +5783,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36739</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36770</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36800</v>
       </c>
@@ -5860,7 +5859,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>36831</v>
       </c>
@@ -5884,7 +5883,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36861</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>36867</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>54</v>
@@ -5932,7 +5931,7 @@
         <v>36887</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>101</v>
@@ -5952,7 +5951,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>90</v>
       </c>
@@ -5974,7 +5973,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36892</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>36902</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>102</v>
@@ -6020,7 +6019,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36923</v>
       </c>
@@ -6040,7 +6039,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36951</v>
       </c>
@@ -6064,7 +6063,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36982</v>
       </c>
@@ -6090,7 +6089,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37012</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37043</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>37055</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37073</v>
       </c>
@@ -6166,7 +6165,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37104</v>
       </c>
@@ -6192,7 +6191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -6214,7 +6213,7 @@
         <v>37130</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>48</v>
@@ -6236,7 +6235,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>108</v>
@@ -6256,7 +6255,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37135</v>
       </c>
@@ -6280,7 +6279,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37165</v>
       </c>
@@ -6300,7 +6299,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37196</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37226</v>
       </c>
@@ -6348,7 +6347,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>89</v>
       </c>
@@ -6370,7 +6369,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37257</v>
       </c>
@@ -6390,7 +6389,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37288</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>37308</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37316</v>
       </c>
@@ -6436,7 +6435,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37347</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>37372</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37377</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37408</v>
       </c>
@@ -6504,7 +6503,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37438</v>
       </c>
@@ -6524,7 +6523,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>37469</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37500</v>
       </c>
@@ -6570,7 +6569,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>37530</v>
       </c>
@@ -6590,7 +6589,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37561</v>
       </c>
@@ -6614,7 +6613,7 @@
         <v>37566</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6634,7 +6633,7 @@
         <v>37603</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37591</v>
       </c>
@@ -6654,7 +6653,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="48" t="s">
         <v>113</v>
       </c>
@@ -6676,7 +6675,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37622</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>37624</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>37653</v>
       </c>
@@ -6724,7 +6723,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>37681</v>
       </c>
@@ -6744,7 +6743,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>37712</v>
       </c>
@@ -6764,7 +6763,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>37742</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>37773</v>
       </c>
@@ -6806,7 +6805,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>37803</v>
       </c>
@@ -6826,7 +6825,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>37834</v>
       </c>
@@ -6850,7 +6849,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>37865</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>37882</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>37895</v>
       </c>
@@ -6896,7 +6895,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>37926</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>50</v>
@@ -6944,7 +6943,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>37956</v>
       </c>
@@ -6968,7 +6967,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="48" t="s">
         <v>112</v>
       </c>
@@ -6990,7 +6989,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>37987</v>
       </c>
@@ -7010,7 +7009,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38018</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>38016</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7058,7 +7057,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38078</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38108</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38139</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>38154</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38169</v>
       </c>
@@ -7170,7 +7169,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38200</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>38210</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>131</v>
@@ -7218,7 +7217,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38231</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>132</v>
@@ -7264,7 +7263,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38261</v>
       </c>
@@ -7288,7 +7287,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38292</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>54</v>
@@ -7336,7 +7335,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>79</v>
@@ -7356,7 +7355,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38322</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>38338</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>134</v>
@@ -7406,7 +7405,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>111</v>
       </c>
@@ -7428,7 +7427,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="50"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38353</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>54</v>
@@ -7474,7 +7473,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>139</v>
@@ -7494,7 +7493,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38384</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>160</v>
@@ -7540,7 +7539,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38412</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>38418</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>161</v>
@@ -7586,7 +7585,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38443</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -7634,7 +7633,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>54</v>
@@ -7656,7 +7655,7 @@
         <v>38476</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -7676,7 +7675,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>162</v>
@@ -7698,7 +7697,7 @@
         <v>38503</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>38473</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>123</v>
@@ -7744,7 +7743,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>163</v>
@@ -7764,7 +7763,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>38504</v>
       </c>
@@ -7788,7 +7787,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>38534</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>38538</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>123</v>
@@ -7836,7 +7835,7 @@
         <v>38583</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>122</v>
@@ -7856,7 +7855,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38565</v>
       </c>
@@ -7880,7 +7879,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38596</v>
       </c>
@@ -7904,7 +7903,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38626</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>38657</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>38673</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>141</v>
@@ -7978,7 +7977,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>142</v>
@@ -7998,7 +7997,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>123</v>
@@ -8046,7 +8045,7 @@
         <v>38708</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>48</v>
@@ -8066,7 +8065,7 @@
         <v>38707</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>110</v>
       </c>
@@ -8088,7 +8087,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -8112,7 +8111,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>150</v>
@@ -8132,7 +8131,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38749</v>
       </c>
@@ -8156,7 +8155,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38777</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>117</v>
@@ -8204,7 +8203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>152</v>
@@ -8224,7 +8223,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>138</v>
@@ -8244,7 +8243,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>138</v>
@@ -8264,7 +8263,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>38808</v>
       </c>
@@ -8288,7 +8287,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8310,7 +8309,7 @@
         <v>38498</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38838</v>
       </c>
@@ -8334,7 +8333,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>38869</v>
       </c>
@@ -8358,7 +8357,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38899</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>60</v>
@@ -8404,7 +8403,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>94</v>
@@ -8426,7 +8425,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>171</v>
@@ -8446,7 +8445,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38930</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>48</v>
@@ -8494,7 +8493,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>48</v>
@@ -8516,7 +8515,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>172</v>
@@ -8536,7 +8535,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38961</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>173</v>
@@ -8582,7 +8581,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38991</v>
       </c>
@@ -8606,7 +8605,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39022</v>
       </c>
@@ -8630,7 +8629,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39052</v>
       </c>
@@ -8654,7 +8653,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="48" t="s">
         <v>149</v>
       </c>
@@ -8676,7 +8675,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39083</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>39144</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39114</v>
       </c>
@@ -8722,7 +8721,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39142</v>
       </c>
@@ -8742,7 +8741,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39173</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39203</v>
       </c>
@@ -8786,7 +8785,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39234</v>
       </c>
@@ -8806,7 +8805,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39264</v>
       </c>
@@ -8826,7 +8825,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39295</v>
       </c>
@@ -8846,7 +8845,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39326</v>
       </c>
@@ -8866,7 +8865,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39356</v>
       </c>
@@ -8892,7 +8891,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>117</v>
@@ -8914,7 +8913,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39387</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39417</v>
       </c>
@@ -8960,7 +8959,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="48" t="s">
         <v>148</v>
       </c>
@@ -8982,7 +8981,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>39448</v>
       </c>
@@ -9002,7 +9001,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39479</v>
       </c>
@@ -9022,7 +9021,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>39508</v>
       </c>
@@ -9042,7 +9041,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>39539</v>
       </c>
@@ -9068,7 +9067,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39569</v>
       </c>
@@ -9088,7 +9087,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39600</v>
       </c>
@@ -9108,7 +9107,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>39630</v>
       </c>
@@ -9128,7 +9127,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>39661</v>
       </c>
@@ -9148,7 +9147,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39692</v>
       </c>
@@ -9168,7 +9167,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39722</v>
       </c>
@@ -9188,7 +9187,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>39753</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>138</v>
@@ -9234,7 +9233,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>183</v>
@@ -9254,7 +9253,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>54</v>
@@ -9276,7 +9275,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>39783</v>
       </c>
@@ -9300,7 +9299,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="48" t="s">
         <v>147</v>
       </c>
@@ -9322,7 +9321,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39814</v>
       </c>
@@ -9346,7 +9345,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>39845</v>
       </c>
@@ -9366,7 +9365,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39873</v>
       </c>
@@ -9386,7 +9385,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>39904</v>
       </c>
@@ -9410,7 +9409,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>138</v>
@@ -9430,7 +9429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>39934</v>
       </c>
@@ -9450,7 +9449,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39965</v>
       </c>
@@ -9470,7 +9469,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>39995</v>
       </c>
@@ -9496,7 +9495,7 @@
         <v>40006</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>40026</v>
       </c>
@@ -9516,7 +9515,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40057</v>
       </c>
@@ -9536,7 +9535,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>40087</v>
       </c>
@@ -9562,7 +9561,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40118</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40148</v>
       </c>
@@ -9612,7 +9611,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="48" t="s">
         <v>146</v>
       </c>
@@ -9634,7 +9633,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40179</v>
       </c>
@@ -9654,7 +9653,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40210</v>
       </c>
@@ -9674,7 +9673,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40238</v>
       </c>
@@ -9694,7 +9693,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40269</v>
       </c>
@@ -9714,7 +9713,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40299</v>
       </c>
@@ -9734,7 +9733,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>40330</v>
       </c>
@@ -9754,7 +9753,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40360</v>
       </c>
@@ -9778,7 +9777,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40391</v>
       </c>
@@ -9802,7 +9801,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40422</v>
       </c>
@@ -9822,7 +9821,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>40452</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>189</v>
@@ -9870,7 +9869,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40483</v>
       </c>
@@ -9890,7 +9889,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40513</v>
       </c>
@@ -9910,7 +9909,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>145</v>
       </c>
@@ -9928,7 +9927,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40544</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>40575</v>
       </c>
@@ -9978,7 +9977,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>40603</v>
       </c>
@@ -9998,7 +9997,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40634</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40664</v>
       </c>
@@ -10042,7 +10041,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>40695</v>
       </c>
@@ -10062,7 +10061,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>40725</v>
       </c>
@@ -10082,7 +10081,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40756</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>40780</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>123</v>
@@ -10130,7 +10129,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>40787</v>
       </c>
@@ -10150,7 +10149,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40817</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10196,7 +10195,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>117</v>
@@ -10218,7 +10217,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40848</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>40878</v>
       </c>
@@ -10264,7 +10263,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="48" t="s">
         <v>144</v>
       </c>
@@ -10286,7 +10285,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40909</v>
       </c>
@@ -10306,7 +10305,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40940</v>
       </c>
@@ -10326,7 +10325,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>40969</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41000</v>
       </c>
@@ -10370,7 +10369,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>41030</v>
       </c>
@@ -10394,7 +10393,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41061</v>
       </c>
@@ -10414,7 +10413,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>41091</v>
       </c>
@@ -10440,7 +10439,7 @@
         <v>41250</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>41122</v>
       </c>
@@ -10466,7 +10465,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41153</v>
       </c>
@@ -10486,7 +10485,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>41183</v>
       </c>
@@ -10506,7 +10505,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>41214</v>
       </c>
@@ -10530,7 +10529,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>41244</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>123</v>
@@ -10578,7 +10577,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="48" t="s">
         <v>200</v>
       </c>
@@ -10600,7 +10599,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>41275</v>
       </c>
@@ -10620,7 +10619,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41306</v>
       </c>
@@ -10640,7 +10639,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41334</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>41365</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>41395</v>
       </c>
@@ -10716,7 +10715,7 @@
         <v>41369</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41426</v>
       </c>
@@ -10736,7 +10735,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41456</v>
       </c>
@@ -10760,7 +10759,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>41487</v>
       </c>
@@ -10782,7 +10781,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>41518</v>
       </c>
@@ -10802,7 +10801,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41548</v>
       </c>
@@ -10828,7 +10827,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41579</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>41609</v>
       </c>
@@ -10876,7 +10875,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="48" t="s">
         <v>199</v>
       </c>
@@ -10898,7 +10897,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>41640</v>
       </c>
@@ -10918,7 +10917,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>41671</v>
       </c>
@@ -10944,7 +10943,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>210</v>
@@ -10966,7 +10965,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>41699</v>
       </c>
@@ -10986,7 +10985,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41730</v>
       </c>
@@ -11012,7 +11011,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>48</v>
@@ -11034,7 +11033,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>41760</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>41791</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>138</v>
@@ -11106,7 +11105,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>41821</v>
       </c>
@@ -11126,7 +11125,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41852</v>
       </c>
@@ -11146,7 +11145,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41883</v>
       </c>
@@ -11166,7 +11165,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41913</v>
       </c>
@@ -11186,7 +11185,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41944</v>
       </c>
@@ -11206,7 +11205,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>41974</v>
       </c>
@@ -11230,7 +11229,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>198</v>
       </c>
@@ -11252,7 +11251,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>42005</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>123</v>
@@ -11298,7 +11297,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>42036</v>
       </c>
@@ -11318,7 +11317,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>42064</v>
       </c>
@@ -11344,7 +11343,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>123</v>
@@ -11366,7 +11365,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>42095</v>
       </c>
@@ -11392,7 +11391,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>138</v>
@@ -11412,7 +11411,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>131</v>
@@ -11434,7 +11433,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>42125</v>
       </c>
@@ -11460,7 +11459,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>42156</v>
       </c>
@@ -11480,7 +11479,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>42186</v>
       </c>
@@ -11500,7 +11499,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>42217</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>42248</v>
       </c>
@@ -11546,7 +11545,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>42278</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>60</v>
@@ -11594,7 +11593,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42309</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>54</v>
@@ -11642,7 +11641,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>42339</v>
       </c>
@@ -11662,7 +11661,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="48" t="s">
         <v>197</v>
       </c>
@@ -11684,7 +11683,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>42370</v>
       </c>
@@ -11708,7 +11707,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>138</v>
@@ -11728,7 +11727,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>42401</v>
       </c>
@@ -11748,7 +11747,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>42430</v>
       </c>
@@ -11772,7 +11771,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>119</v>
@@ -11794,7 +11793,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>123</v>
@@ -11816,7 +11815,7 @@
         <v>42465</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>42461</v>
       </c>
@@ -11836,7 +11835,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>42491</v>
       </c>
@@ -11856,7 +11855,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42522</v>
       </c>
@@ -11876,7 +11875,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>42552</v>
       </c>
@@ -11896,7 +11895,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>42583</v>
       </c>
@@ -11922,7 +11921,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>131</v>
@@ -11944,7 +11943,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>51</v>
@@ -11966,7 +11965,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>70</v>
@@ -11988,7 +11987,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>42614</v>
       </c>
@@ -12008,7 +12007,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>42644</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>42675</v>
       </c>
@@ -12054,7 +12053,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>42705</v>
       </c>
@@ -12074,7 +12073,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="48" t="s">
         <v>196</v>
       </c>
@@ -12096,7 +12095,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>42736</v>
       </c>
@@ -12120,7 +12119,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>42767</v>
       </c>
@@ -12146,7 +12145,7 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>42795</v>
       </c>
@@ -12166,7 +12165,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>42826</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>42856</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>42887</v>
       </c>
@@ -12236,7 +12235,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42917</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12284,7 +12283,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>48</v>
@@ -12306,7 +12305,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>42948</v>
       </c>
@@ -12332,7 +12331,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>81</v>
@@ -12354,7 +12353,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>81</v>
@@ -12376,7 +12375,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>42979</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43009</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>213</v>
@@ -12446,7 +12445,7 @@
         <v>42927</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>48</v>
@@ -12466,7 +12465,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43040</v>
       </c>
@@ -12486,7 +12485,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43070</v>
       </c>
@@ -12506,7 +12505,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="48" t="s">
         <v>246</v>
       </c>
@@ -12528,7 +12527,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43101</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43132</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>50</v>
@@ -12602,7 +12601,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>138</v>
@@ -12622,7 +12621,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43160</v>
       </c>
@@ -12642,7 +12641,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>43191</v>
       </c>
@@ -12662,7 +12661,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>43221</v>
       </c>
@@ -12688,7 +12687,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>138</v>
@@ -12708,7 +12707,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>50</v>
@@ -12730,7 +12729,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>43252</v>
       </c>
@@ -12756,7 +12755,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -12776,7 +12775,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43282</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43313</v>
       </c>
@@ -12826,7 +12825,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43344</v>
       </c>
@@ -12846,7 +12845,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43374</v>
       </c>
@@ -12866,7 +12865,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>43405</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>43435</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
         <v>245</v>
       </c>
@@ -12940,7 +12939,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43466</v>
       </c>
@@ -12966,7 +12965,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43497</v>
       </c>
@@ -12986,7 +12985,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>43525</v>
       </c>
@@ -13012,7 +13011,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>43556</v>
       </c>
@@ -13038,7 +13037,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -13060,7 +13059,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43586</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>43617</v>
       </c>
@@ -13106,7 +13105,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>43647</v>
       </c>
@@ -13126,7 +13125,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43678</v>
       </c>
@@ -13146,7 +13145,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>43709</v>
       </c>
@@ -13170,7 +13169,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>54</v>
@@ -13192,7 +13191,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43739</v>
       </c>
@@ -13212,7 +13211,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>43770</v>
       </c>
@@ -13232,7 +13231,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>43800</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
         <v>244</v>
       </c>
@@ -13280,7 +13279,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>43831</v>
       </c>
@@ -13306,7 +13305,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>43862</v>
       </c>
@@ -13326,7 +13325,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>43891</v>
       </c>
@@ -13346,7 +13345,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43922</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>43952</v>
       </c>
@@ -13396,7 +13395,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>43983</v>
       </c>
@@ -13416,7 +13415,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44013</v>
       </c>
@@ -13436,7 +13435,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>44044</v>
       </c>
@@ -13456,7 +13455,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44075</v>
       </c>
@@ -13476,7 +13475,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44105</v>
       </c>
@@ -13496,7 +13495,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44136</v>
       </c>
@@ -13516,7 +13515,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>44166</v>
       </c>
@@ -13542,7 +13541,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>138</v>
@@ -13562,7 +13561,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>123</v>
@@ -13582,7 +13581,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
         <v>243</v>
       </c>
@@ -13604,7 +13603,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>44197</v>
       </c>
@@ -13624,7 +13623,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>44228</v>
       </c>
@@ -13644,7 +13643,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44256</v>
       </c>
@@ -13664,7 +13663,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44287</v>
       </c>
@@ -13688,7 +13687,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>44317</v>
       </c>
@@ -13708,7 +13707,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>44348</v>
       </c>
@@ -13728,7 +13727,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>44378</v>
       </c>
@@ -13748,7 +13747,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44409</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>44440</v>
       </c>
@@ -13794,7 +13793,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44470</v>
       </c>
@@ -13814,7 +13813,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>44501</v>
       </c>
@@ -13838,7 +13837,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>51</v>
@@ -13860,7 +13859,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>44531</v>
       </c>
@@ -13884,7 +13883,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="48" t="s">
         <v>242</v>
       </c>
@@ -13906,7 +13905,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>44562</v>
       </c>
@@ -13930,7 +13929,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>60</v>
@@ -13950,7 +13949,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>44593</v>
       </c>
@@ -13976,7 +13975,7 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>44621</v>
       </c>
@@ -13996,7 +13995,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>44652</v>
       </c>
@@ -14016,7 +14015,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44682</v>
       </c>
@@ -14040,7 +14039,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>131</v>
@@ -14062,7 +14061,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>290</v>
@@ -14084,7 +14083,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>44713</v>
       </c>
@@ -14104,7 +14103,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44743</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>54</v>
@@ -14152,7 +14151,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>54</v>
@@ -14174,7 +14173,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -14196,7 +14195,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>44774</v>
       </c>
@@ -14222,7 +14221,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>48</v>
@@ -14244,7 +14243,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44805</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>44835</v>
       </c>
@@ -14290,7 +14289,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44866</v>
       </c>
@@ -14316,7 +14315,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>131</v>
@@ -14338,7 +14337,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>54</v>
@@ -14360,7 +14359,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44896</v>
       </c>
@@ -14386,7 +14385,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="48" t="s">
         <v>289</v>
       </c>
@@ -14404,7 +14403,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>44927</v>
       </c>
@@ -14428,7 +14427,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44958</v>
       </c>
@@ -14448,7 +14447,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44986</v>
       </c>
@@ -14474,7 +14473,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>138</v>
@@ -14494,20 +14493,22 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>45017</v>
       </c>
       <c r="B483" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C483" s="13"/>
+      <c r="C483" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D483" s="39"/>
       <c r="E483" s="9"/>
       <c r="F483" s="20"/>
-      <c r="G483" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G483" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H483" s="39">
         <v>1</v>
@@ -14518,79 +14519,91 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>45047</v>
       </c>
       <c r="B484" s="20"/>
-      <c r="C484" s="13"/>
+      <c r="C484" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D484" s="39"/>
       <c r="E484" s="9"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G484" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H484" s="39"/>
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>45078</v>
       </c>
       <c r="B485" s="20"/>
-      <c r="C485" s="13"/>
+      <c r="C485" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D485" s="39"/>
       <c r="E485" s="9"/>
       <c r="F485" s="20"/>
-      <c r="G485" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G485" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H485" s="39"/>
       <c r="I485" s="9"/>
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>45108</v>
       </c>
       <c r="B486" s="20"/>
-      <c r="C486" s="13"/>
+      <c r="C486" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D486" s="39"/>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G486" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H486" s="39"/>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>45139</v>
       </c>
-      <c r="B487" s="20"/>
-      <c r="C487" s="13"/>
+      <c r="B487" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C487" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D487" s="39"/>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G487" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H487" s="39"/>
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
-      <c r="K487" s="20"/>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K487" s="49">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>45170</v>
       </c>
@@ -14608,7 +14621,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>45200</v>
       </c>
@@ -14626,7 +14639,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>45231</v>
       </c>
@@ -14644,7 +14657,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>45261</v>
       </c>
@@ -14662,7 +14675,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>45292</v>
       </c>
@@ -14680,7 +14693,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>45323</v>
       </c>
@@ -14698,7 +14711,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>45352</v>
       </c>
@@ -14716,7 +14729,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>45383</v>
       </c>
@@ -14734,7 +14747,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>45413</v>
       </c>
@@ -14752,7 +14765,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>45444</v>
       </c>
@@ -14770,7 +14783,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>45474</v>
       </c>
@@ -14788,7 +14801,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>45505</v>
       </c>
@@ -14806,7 +14819,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>45536</v>
       </c>
@@ -14824,7 +14837,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>45566</v>
       </c>
@@ -14842,7 +14855,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>45597</v>
       </c>
@@ -14860,7 +14873,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>45627</v>
       </c>
@@ -14878,7 +14891,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>45658</v>
       </c>
@@ -14896,7 +14909,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>45689</v>
       </c>
@@ -14914,7 +14927,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>45717</v>
       </c>
@@ -14932,7 +14945,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>45748</v>
       </c>
@@ -14950,7 +14963,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>45778</v>
       </c>
@@ -14968,7 +14981,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>45809</v>
       </c>
@@ -14986,7 +14999,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>45839</v>
       </c>
@@ -15004,7 +15017,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>45870</v>
       </c>
@@ -15022,7 +15035,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>45901</v>
       </c>
@@ -15040,7 +15053,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>45931</v>
       </c>
@@ -15058,7 +15071,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>45962</v>
       </c>
@@ -15076,7 +15089,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>45992</v>
       </c>
@@ -15094,7 +15107,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>46023</v>
       </c>
@@ -15112,7 +15125,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>46054</v>
       </c>
@@ -15130,7 +15143,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>46082</v>
       </c>
@@ -15148,7 +15161,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>46113</v>
       </c>
@@ -15166,7 +15179,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>46143</v>
       </c>
@@ -15184,7 +15197,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>46174</v>
       </c>
@@ -15202,7 +15215,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>46204</v>
       </c>
@@ -15220,7 +15233,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>46235</v>
       </c>
@@ -15238,7 +15251,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>46266</v>
       </c>
@@ -15256,7 +15269,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>46296</v>
       </c>
@@ -15274,7 +15287,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>46327</v>
       </c>
@@ -15292,7 +15305,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>46357</v>
       </c>
@@ -15310,7 +15323,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>46388</v>
       </c>
@@ -15328,7 +15341,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>46419</v>
       </c>
@@ -15346,7 +15359,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>46447</v>
       </c>
@@ -15364,7 +15377,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>46478</v>
       </c>
@@ -15382,7 +15395,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>46508</v>
       </c>
@@ -15400,7 +15413,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>46539</v>
       </c>
@@ -15418,7 +15431,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>46569</v>
       </c>
@@ -15436,7 +15449,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>46600</v>
       </c>
@@ -15454,7 +15467,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>46631</v>
       </c>
@@ -15472,7 +15485,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>46661</v>
       </c>
@@ -15490,7 +15503,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>46692</v>
       </c>
@@ -15508,7 +15521,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>46722</v>
       </c>
@@ -15526,7 +15539,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>46753</v>
       </c>
@@ -15544,7 +15557,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>46784</v>
       </c>
@@ -15562,7 +15575,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>46813</v>
       </c>
@@ -15580,7 +15593,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>46844</v>
       </c>
@@ -15598,7 +15611,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>46874</v>
       </c>
@@ -15616,7 +15629,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>46905</v>
       </c>
@@ -15634,7 +15647,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>46935</v>
       </c>
@@ -15652,7 +15665,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>46966</v>
       </c>
@@ -15670,7 +15683,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>46997</v>
       </c>
@@ -15688,7 +15701,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>47027</v>
       </c>
@@ -15706,7 +15719,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>47058</v>
       </c>
@@ -15724,7 +15737,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>47088</v>
       </c>
@@ -15742,7 +15755,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>47119</v>
       </c>
@@ -15760,7 +15773,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>47150</v>
       </c>
@@ -15778,7 +15791,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>47178</v>
       </c>
@@ -15796,7 +15809,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>47209</v>
       </c>
@@ -15814,7 +15827,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>47239</v>
       </c>
@@ -15832,7 +15845,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>47270</v>
       </c>
@@ -15850,7 +15863,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>47300</v>
       </c>
@@ -15868,7 +15881,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>47331</v>
       </c>
@@ -15886,7 +15899,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>47362</v>
       </c>
@@ -15904,7 +15917,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>47392</v>
       </c>
@@ -15922,7 +15935,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15938,7 +15951,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15954,7 +15967,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15970,7 +15983,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15986,7 +15999,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16002,7 +16015,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16018,7 +16031,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16034,7 +16047,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16050,7 +16063,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16066,7 +16079,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16082,7 +16095,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16098,7 +16111,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16114,7 +16127,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16130,7 +16143,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16146,7 +16159,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16162,7 +16175,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16178,7 +16191,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16194,7 +16207,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16210,7 +16223,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16226,7 +16239,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16242,7 +16255,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16258,7 +16271,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16274,7 +16287,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16290,7 +16303,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16306,7 +16319,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16322,7 +16335,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16338,7 +16351,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16354,7 +16367,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16370,7 +16383,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16386,7 +16399,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16402,7 +16415,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16418,7 +16431,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16434,7 +16447,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16450,7 +16463,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16466,7 +16479,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16482,7 +16495,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="41"/>
       <c r="B597" s="15"/>
       <c r="C597" s="42"/>
@@ -16513,10 +16526,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16539,7 +16552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16547,21 +16560,21 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16574,7 +16587,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16603,7 +16616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -16631,17 +16644,17 @@
         <v>0.45799999999999985</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>296</v>
       </c>
@@ -16665,10 +16678,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>482.16799999999995</v>
+        <v>494.66799999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16696,7 +16709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16722,7 +16735,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16748,7 +16761,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16774,7 +16787,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16800,7 +16813,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16826,7 +16839,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16852,7 +16865,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16878,7 +16891,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16898,7 +16911,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16918,7 +16931,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16938,7 +16951,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16959,7 +16972,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16980,7 +16993,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17001,7 +17014,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17022,7 +17035,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17043,7 +17056,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17064,7 +17077,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17085,7 +17098,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17106,7 +17119,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17127,7 +17140,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17148,7 +17161,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17169,7 +17182,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17190,7 +17203,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17211,7 +17224,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17232,7 +17245,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17253,7 +17266,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17274,7 +17287,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17295,7 +17308,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17316,7 +17329,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17337,7 +17350,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17358,7 +17371,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17367,7 +17380,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17376,7 +17389,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17385,7 +17398,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17394,7 +17407,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17403,7 +17416,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17412,7 +17425,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17421,7 +17434,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17430,7 +17443,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17439,7 +17452,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17448,7 +17461,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17457,7 +17470,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17466,7 +17479,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17475,7 +17488,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17484,7 +17497,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17493,7 +17506,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17502,7 +17515,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17511,7 +17524,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17520,7 +17533,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17529,7 +17542,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17538,7 +17551,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17547,7 +17560,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17556,7 +17569,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17565,7 +17578,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17574,7 +17587,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17583,7 +17596,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17592,7 +17605,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17601,7 +17614,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17610,7 +17623,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17619,7 +17632,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/SUSA, NANETTE B..xlsx
+++ b/REGULAR/OJT/SUSA, NANETTE B..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="298">
   <si>
     <t>PERIOD</t>
   </si>
@@ -922,6 +922,12 @@
   </si>
   <si>
     <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1802,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1845,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1909,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1969,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2035,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2098,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2196,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2255,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2320,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2363,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2438,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2624,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2690,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2748,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2814,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2870,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2945,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +2988,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +3054,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3104,7 +3110,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3208,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3265,7 +3271,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,7 +3337,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K597" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3709,12 +3715,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K597"/>
+  <dimension ref="A2:K598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3855" topLeftCell="A427" activePane="bottomLeft"/>
+      <pane ySplit="3855" topLeftCell="A484" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B431" sqref="B431"/>
+      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,7 +3887,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>187.45999999999998</v>
+        <v>189.95999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3891,7 +3897,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>314.20799999999997</v>
+        <v>313.70799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14639,13 +14645,15 @@
         <v>45231</v>
       </c>
       <c r="B490" s="20"/>
-      <c r="C490" s="13"/>
+      <c r="C490" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D490" s="39"/>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G490" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H490" s="39"/>
       <c r="I490" s="9"/>
@@ -14657,13 +14665,15 @@
         <v>45261</v>
       </c>
       <c r="B491" s="20"/>
-      <c r="C491" s="13"/>
+      <c r="C491" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D491" s="39"/>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G491" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H491" s="39"/>
       <c r="I491" s="9"/>
@@ -14671,18 +14681,15 @@
       <c r="K491" s="20"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="40">
-        <v>45292</v>
+      <c r="A492" s="48" t="s">
+        <v>296</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
       <c r="D492" s="39"/>
       <c r="E492" s="9"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G492" s="13"/>
       <c r="H492" s="39"/>
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
@@ -14690,9 +14697,11 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B493" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B493" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C493" s="13"/>
       <c r="D493" s="39"/>
       <c r="E493" s="9"/>
@@ -14701,14 +14710,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H493" s="39"/>
+      <c r="H493" s="39">
+        <v>3</v>
+      </c>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
-      <c r="K493" s="20"/>
+      <c r="K493" s="20" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14726,7 +14739,7 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14744,7 +14757,7 @@
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14762,7 +14775,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14780,7 +14793,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14798,7 +14811,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14816,7 +14829,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14834,7 +14847,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14852,7 +14865,7 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14870,7 +14883,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14888,7 +14901,7 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14906,7 +14919,7 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14924,7 +14937,7 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14942,7 +14955,7 @@
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14960,7 +14973,7 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14978,7 +14991,7 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -14996,7 +15009,7 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15014,7 +15027,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15032,7 +15045,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15050,7 +15063,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15068,7 +15081,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15086,7 +15099,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15104,7 +15117,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15122,7 +15135,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15140,7 +15153,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15158,7 +15171,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15176,7 +15189,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15194,7 +15207,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15212,7 +15225,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15230,7 +15243,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15248,7 +15261,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15266,7 +15279,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15284,7 +15297,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15302,7 +15315,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15320,7 +15333,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15338,7 +15351,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15356,7 +15369,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15374,7 +15387,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15392,7 +15405,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15410,7 +15423,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15428,7 +15441,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15446,7 +15459,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15464,7 +15477,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15482,7 +15495,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15500,7 +15513,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15518,7 +15531,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15536,7 +15549,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15554,7 +15567,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15572,7 +15585,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15590,7 +15603,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15608,7 +15621,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15626,7 +15639,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15644,7 +15657,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15662,7 +15675,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15680,7 +15693,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15698,7 +15711,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15716,7 +15729,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15734,7 +15747,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15752,7 +15765,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15770,7 +15783,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15788,7 +15801,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15806,7 +15819,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15824,7 +15837,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15842,7 +15855,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15860,7 +15873,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15878,7 +15891,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15896,7 +15909,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15914,7 +15927,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15931,7 +15944,9 @@
       <c r="K561" s="20"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A562" s="40"/>
+      <c r="A562" s="40">
+        <v>47392</v>
+      </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
@@ -16491,20 +16506,36 @@
       <c r="K596" s="20"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="41"/>
-      <c r="B597" s="15"/>
-      <c r="C597" s="42"/>
-      <c r="D597" s="43"/>
+      <c r="A597" s="40"/>
+      <c r="B597" s="20"/>
+      <c r="C597" s="13"/>
+      <c r="D597" s="39"/>
       <c r="E597" s="9"/>
-      <c r="F597" s="15"/>
-      <c r="G597" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H597" s="43"/>
+      <c r="F597" s="20"/>
+      <c r="G597" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H597" s="39"/>
       <c r="I597" s="9"/>
-      <c r="J597" s="12"/>
-      <c r="K597" s="15"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="20"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" s="41"/>
+      <c r="B598" s="15"/>
+      <c r="C598" s="42"/>
+      <c r="D598" s="43"/>
+      <c r="E598" s="9"/>
+      <c r="F598" s="15"/>
+      <c r="G598" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H598" s="43"/>
+      <c r="I598" s="9"/>
+      <c r="J598" s="12"/>
+      <c r="K598" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16676,7 +16707,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>501.66799999999995</v>
+        <v>503.66799999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/SUSA, NANETTE B..xlsx
+++ b/REGULAR/OJT/SUSA, NANETTE B..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29F10B4-2C29-4788-A3D4-229EE16A1765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="299">
   <si>
     <t>PERIOD</t>
   </si>
@@ -928,12 +929,15 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>1/29,30/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1802,7 +1806,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1849,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1913,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1973,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2039,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2102,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2200,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2259,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2324,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2367,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2442,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2628,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2694,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2752,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2818,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2874,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,7 +2949,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +2992,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3058,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3114,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3212,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3275,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3324,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3337,25 +3341,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K599" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3367,13 +3371,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3382,14 +3386,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3693,7 +3697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3703,7 +3707,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3711,34 +3715,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K598"/>
+  <dimension ref="A2:K599"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3855" topLeftCell="A484" activePane="bottomLeft"/>
+      <pane ySplit="3852" topLeftCell="A484" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="D498" sqref="D498"/>
+      <selection pane="bottomLeft" activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3761,7 +3765,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3783,7 +3787,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +3809,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3813,7 +3817,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3826,7 +3830,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3843,7 +3847,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3878,7 +3882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3887,7 +3891,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>189.95999999999998</v>
+        <v>191.20999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3897,12 +3901,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>313.70799999999997</v>
+        <v>314.95799999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3924,7 +3928,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>287</v>
       </c>
@@ -3944,7 +3948,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34790</v>
       </c>
@@ -3964,7 +3968,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>34820</v>
       </c>
@@ -3984,7 +3988,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>34851</v>
       </c>
@@ -4004,7 +4008,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>34881</v>
       </c>
@@ -4024,7 +4028,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>34912</v>
       </c>
@@ -4044,7 +4048,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>34943</v>
       </c>
@@ -4064,7 +4068,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>34973</v>
       </c>
@@ -4084,7 +4088,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35004</v>
       </c>
@@ -4104,7 +4108,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35034</v>
       </c>
@@ -4130,7 +4134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>47</v>
       </c>
@@ -4152,7 +4156,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35065</v>
       </c>
@@ -4178,7 +4182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>35096</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>35125</v>
       </c>
@@ -4224,7 +4228,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35156</v>
       </c>
@@ -4244,7 +4248,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>35186</v>
       </c>
@@ -4264,7 +4268,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>35217</v>
       </c>
@@ -4284,7 +4288,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>35247</v>
       </c>
@@ -4304,7 +4308,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35278</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>35309</v>
       </c>
@@ -4350,7 +4354,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>35339</v>
       </c>
@@ -4370,7 +4374,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>35370</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>35400</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -4444,7 +4448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>55</v>
@@ -4464,7 +4468,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>46</v>
       </c>
@@ -4486,7 +4490,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>35431</v>
       </c>
@@ -4506,7 +4510,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35462</v>
       </c>
@@ -4526,7 +4530,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>35490</v>
       </c>
@@ -4550,7 +4554,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>35521</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>60</v>
@@ -4594,7 +4598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>35551</v>
       </c>
@@ -4614,7 +4618,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>35582</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>35612</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>35643</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>35674</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>35704</v>
       </c>
@@ -4738,7 +4742,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>50</v>
@@ -4758,7 +4762,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>35735</v>
       </c>
@@ -4782,7 +4786,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>35765</v>
       </c>
@@ -4802,7 +4806,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="48" t="s">
         <v>45</v>
       </c>
@@ -4824,7 +4828,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>35796</v>
       </c>
@@ -4850,7 +4854,7 @@
         <v>35824</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>72</v>
@@ -4870,7 +4874,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>35827</v>
       </c>
@@ -4890,7 +4894,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>35855</v>
       </c>
@@ -4916,7 +4920,7 @@
         <v>35857</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -4938,7 +4942,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>35886</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>35916</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>35947</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>35977</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36008</v>
       </c>
@@ -5062,7 +5066,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36039</v>
       </c>
@@ -5082,7 +5086,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>36069</v>
       </c>
@@ -5102,7 +5106,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36100</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>36104</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>54</v>
@@ -5150,7 +5154,7 @@
         <v>36125</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>79</v>
@@ -5170,7 +5174,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36130</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>36151</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>44</v>
       </c>
@@ -5218,7 +5222,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>36161</v>
       </c>
@@ -5238,7 +5242,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36192</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>36196</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>36220</v>
       </c>
@@ -5288,7 +5292,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36251</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>36272</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36281</v>
       </c>
@@ -5340,7 +5344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>50</v>
@@ -5362,7 +5366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>82</v>
@@ -5384,7 +5388,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>36312</v>
       </c>
@@ -5404,7 +5408,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>36342</v>
       </c>
@@ -5430,7 +5434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>83</v>
@@ -5450,7 +5454,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>36373</v>
       </c>
@@ -5474,7 +5478,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>36404</v>
       </c>
@@ -5498,7 +5502,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>36434</v>
       </c>
@@ -5518,7 +5522,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>36465</v>
       </c>
@@ -5542,7 +5546,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>92</v>
@@ -5562,7 +5566,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>36495</v>
       </c>
@@ -5586,7 +5590,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>93</v>
@@ -5606,7 +5610,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -5628,7 +5632,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>36526</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>36557</v>
       </c>
@@ -5674,7 +5678,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>36586</v>
       </c>
@@ -5694,7 +5698,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>36617</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>36647</v>
       </c>
@@ -5742,7 +5746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>36678</v>
       </c>
@@ -5762,7 +5766,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>36708</v>
       </c>
@@ -5786,7 +5790,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>36739</v>
       </c>
@@ -5812,7 +5816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>36770</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>36784</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>36800</v>
       </c>
@@ -5862,7 +5866,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>36831</v>
       </c>
@@ -5886,7 +5890,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>36861</v>
       </c>
@@ -5912,7 +5916,7 @@
         <v>36867</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>54</v>
@@ -5934,7 +5938,7 @@
         <v>36887</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>101</v>
@@ -5954,7 +5958,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>90</v>
       </c>
@@ -5976,7 +5980,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>36892</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>36902</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>102</v>
@@ -6022,7 +6026,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>36923</v>
       </c>
@@ -6042,7 +6046,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>36951</v>
       </c>
@@ -6066,7 +6070,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>36982</v>
       </c>
@@ -6092,7 +6096,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37012</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37043</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>37055</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37073</v>
       </c>
@@ -6168,7 +6172,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37104</v>
       </c>
@@ -6194,7 +6198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -6216,7 +6220,7 @@
         <v>37130</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>48</v>
@@ -6238,7 +6242,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>108</v>
@@ -6258,7 +6262,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37135</v>
       </c>
@@ -6282,7 +6286,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37165</v>
       </c>
@@ -6302,7 +6306,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37196</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37226</v>
       </c>
@@ -6350,7 +6354,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>89</v>
       </c>
@@ -6372,7 +6376,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37257</v>
       </c>
@@ -6392,7 +6396,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>37288</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>37308</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37316</v>
       </c>
@@ -6438,7 +6442,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37347</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>37372</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>37377</v>
       </c>
@@ -6486,7 +6490,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37408</v>
       </c>
@@ -6506,7 +6510,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37438</v>
       </c>
@@ -6526,7 +6530,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>37469</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>37500</v>
       </c>
@@ -6572,7 +6576,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>37530</v>
       </c>
@@ -6592,7 +6596,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37561</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>37566</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6636,7 +6640,7 @@
         <v>37603</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>37591</v>
       </c>
@@ -6656,7 +6660,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>113</v>
       </c>
@@ -6678,7 +6682,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37622</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>37624</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>37653</v>
       </c>
@@ -6726,7 +6730,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>37681</v>
       </c>
@@ -6746,7 +6750,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>37712</v>
       </c>
@@ -6766,7 +6770,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>37742</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>37773</v>
       </c>
@@ -6808,7 +6812,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>37803</v>
       </c>
@@ -6828,7 +6832,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>37834</v>
       </c>
@@ -6852,7 +6856,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>37865</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>37882</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>37895</v>
       </c>
@@ -6898,7 +6902,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>37926</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>50</v>
@@ -6946,7 +6950,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>37956</v>
       </c>
@@ -6970,7 +6974,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="48" t="s">
         <v>112</v>
       </c>
@@ -6992,7 +6996,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>37987</v>
       </c>
@@ -7012,7 +7016,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38018</v>
       </c>
@@ -7038,7 +7042,7 @@
         <v>38016</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>126</v>
@@ -7060,7 +7064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38047</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38078</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38108</v>
       </c>
@@ -7126,7 +7130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38139</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>38154</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38169</v>
       </c>
@@ -7172,7 +7176,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38200</v>
       </c>
@@ -7198,7 +7202,7 @@
         <v>38210</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>131</v>
@@ -7220,7 +7224,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>38231</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>132</v>
@@ -7266,7 +7270,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38261</v>
       </c>
@@ -7290,7 +7294,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38292</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>54</v>
@@ -7338,7 +7342,7 @@
         <v>38321</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>79</v>
@@ -7358,7 +7362,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38322</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>38338</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>134</v>
@@ -7408,7 +7412,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="48" t="s">
         <v>111</v>
       </c>
@@ -7430,7 +7434,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="50"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38353</v>
       </c>
@@ -7454,7 +7458,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>54</v>
@@ -7476,7 +7480,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>139</v>
@@ -7496,7 +7500,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>38384</v>
       </c>
@@ -7522,7 +7526,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>160</v>
@@ -7542,7 +7546,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38412</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>38418</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>161</v>
@@ -7588,7 +7592,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38443</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>48</v>
@@ -7636,7 +7640,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>54</v>
@@ -7658,7 +7662,7 @@
         <v>38476</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>54</v>
@@ -7678,7 +7682,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>162</v>
@@ -7700,7 +7704,7 @@
         <v>38503</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>38473</v>
       </c>
@@ -7726,7 +7730,7 @@
         <v>38513</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>123</v>
@@ -7746,7 +7750,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>163</v>
@@ -7766,7 +7770,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>38504</v>
       </c>
@@ -7790,7 +7794,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>38534</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>38538</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>123</v>
@@ -7838,7 +7842,7 @@
         <v>38583</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>122</v>
@@ -7858,7 +7862,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>38565</v>
       </c>
@@ -7882,7 +7886,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38596</v>
       </c>
@@ -7906,7 +7910,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38626</v>
       </c>
@@ -7932,7 +7936,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>38657</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>38673</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>141</v>
@@ -7980,7 +7984,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>142</v>
@@ -8000,7 +8004,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -8026,7 +8030,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>123</v>
@@ -8048,7 +8052,7 @@
         <v>38708</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>48</v>
@@ -8068,7 +8072,7 @@
         <v>38707</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="48" t="s">
         <v>110</v>
       </c>
@@ -8090,7 +8094,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -8114,7 +8118,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>150</v>
@@ -8134,7 +8138,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38749</v>
       </c>
@@ -8158,7 +8162,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>38777</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>117</v>
@@ -8206,7 +8210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>152</v>
@@ -8226,7 +8230,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>138</v>
@@ -8246,7 +8250,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>138</v>
@@ -8266,7 +8270,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>38808</v>
       </c>
@@ -8290,7 +8294,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8312,7 +8316,7 @@
         <v>38498</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>38838</v>
       </c>
@@ -8336,7 +8340,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>38869</v>
       </c>
@@ -8360,7 +8364,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38899</v>
       </c>
@@ -8386,7 +8390,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>60</v>
@@ -8406,7 +8410,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>94</v>
@@ -8428,7 +8432,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>171</v>
@@ -8448,7 +8452,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>38930</v>
       </c>
@@ -8474,7 +8478,7 @@
         <v>38938</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>48</v>
@@ -8496,7 +8500,7 @@
         <v>38940</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>48</v>
@@ -8518,7 +8522,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>172</v>
@@ -8538,7 +8542,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>38961</v>
       </c>
@@ -8564,7 +8568,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>173</v>
@@ -8584,7 +8588,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38991</v>
       </c>
@@ -8608,7 +8612,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>39022</v>
       </c>
@@ -8632,7 +8636,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>39052</v>
       </c>
@@ -8656,7 +8660,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="48" t="s">
         <v>149</v>
       </c>
@@ -8678,7 +8682,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>39083</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>39144</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39114</v>
       </c>
@@ -8724,7 +8728,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>39142</v>
       </c>
@@ -8744,7 +8748,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39173</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>39203</v>
       </c>
@@ -8788,7 +8792,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39234</v>
       </c>
@@ -8808,7 +8812,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39264</v>
       </c>
@@ -8828,7 +8832,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39295</v>
       </c>
@@ -8848,7 +8852,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>39326</v>
       </c>
@@ -8868,7 +8872,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39356</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>117</v>
@@ -8916,7 +8920,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>39387</v>
       </c>
@@ -8942,7 +8946,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39417</v>
       </c>
@@ -8962,7 +8966,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="48" t="s">
         <v>148</v>
       </c>
@@ -8984,7 +8988,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>39448</v>
       </c>
@@ -9004,7 +9008,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>39479</v>
       </c>
@@ -9024,7 +9028,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>39508</v>
       </c>
@@ -9044,7 +9048,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>39539</v>
       </c>
@@ -9070,7 +9074,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>39569</v>
       </c>
@@ -9090,7 +9094,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39600</v>
       </c>
@@ -9110,7 +9114,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>39630</v>
       </c>
@@ -9130,7 +9134,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>39661</v>
       </c>
@@ -9150,7 +9154,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>39692</v>
       </c>
@@ -9170,7 +9174,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39722</v>
       </c>
@@ -9190,7 +9194,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>39753</v>
       </c>
@@ -9216,7 +9220,7 @@
         <v>39780</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>138</v>
@@ -9236,7 +9240,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>183</v>
@@ -9256,7 +9260,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>54</v>
@@ -9278,7 +9282,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>39783</v>
       </c>
@@ -9302,7 +9306,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="48" t="s">
         <v>147</v>
       </c>
@@ -9324,7 +9328,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39814</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>39845</v>
       </c>
@@ -9368,7 +9372,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39873</v>
       </c>
@@ -9388,7 +9392,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>39904</v>
       </c>
@@ -9412,7 +9416,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>138</v>
@@ -9432,7 +9436,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>39934</v>
       </c>
@@ -9452,7 +9456,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>39965</v>
       </c>
@@ -9472,7 +9476,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>39995</v>
       </c>
@@ -9498,7 +9502,7 @@
         <v>40006</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <v>40026</v>
       </c>
@@ -9518,7 +9522,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>40057</v>
       </c>
@@ -9538,7 +9542,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>40087</v>
       </c>
@@ -9564,7 +9568,7 @@
         <v>40102</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>40118</v>
       </c>
@@ -9590,7 +9594,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>40148</v>
       </c>
@@ -9614,7 +9618,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="48" t="s">
         <v>146</v>
       </c>
@@ -9636,7 +9640,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>40179</v>
       </c>
@@ -9656,7 +9660,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40210</v>
       </c>
@@ -9676,7 +9680,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>40238</v>
       </c>
@@ -9696,7 +9700,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>40269</v>
       </c>
@@ -9716,7 +9720,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>40299</v>
       </c>
@@ -9736,7 +9740,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>40330</v>
       </c>
@@ -9756,7 +9760,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>40360</v>
       </c>
@@ -9780,7 +9784,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>40391</v>
       </c>
@@ -9804,7 +9808,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>40422</v>
       </c>
@@ -9824,7 +9828,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>40452</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>189</v>
@@ -9872,7 +9876,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>40483</v>
       </c>
@@ -9892,7 +9896,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>40513</v>
       </c>
@@ -9912,7 +9916,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="48" t="s">
         <v>145</v>
       </c>
@@ -9930,7 +9934,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>40544</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>40701</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>40575</v>
       </c>
@@ -9980,7 +9984,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>40603</v>
       </c>
@@ -10000,7 +10004,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>40634</v>
       </c>
@@ -10024,7 +10028,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>40664</v>
       </c>
@@ -10044,7 +10048,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>40695</v>
       </c>
@@ -10064,7 +10068,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>40725</v>
       </c>
@@ -10084,7 +10088,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>40756</v>
       </c>
@@ -10110,7 +10114,7 @@
         <v>40780</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>123</v>
@@ -10132,7 +10136,7 @@
         <v>40782</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>40787</v>
       </c>
@@ -10152,7 +10156,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>40817</v>
       </c>
@@ -10176,7 +10180,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10198,7 +10202,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>117</v>
@@ -10220,7 +10224,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40848</v>
       </c>
@@ -10246,7 +10250,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>40878</v>
       </c>
@@ -10266,7 +10270,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="48" t="s">
         <v>144</v>
       </c>
@@ -10288,7 +10292,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40909</v>
       </c>
@@ -10308,7 +10312,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40940</v>
       </c>
@@ -10328,7 +10332,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>40969</v>
       </c>
@@ -10352,7 +10356,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>41000</v>
       </c>
@@ -10372,7 +10376,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>41030</v>
       </c>
@@ -10396,7 +10400,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>41061</v>
       </c>
@@ -10416,7 +10420,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>41091</v>
       </c>
@@ -10442,7 +10446,7 @@
         <v>41250</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>41122</v>
       </c>
@@ -10468,7 +10472,7 @@
         <v>41251</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>41153</v>
       </c>
@@ -10488,7 +10492,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>41183</v>
       </c>
@@ -10508,7 +10512,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>41214</v>
       </c>
@@ -10532,7 +10536,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>41244</v>
       </c>
@@ -10558,7 +10562,7 @@
         <v>41133</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>123</v>
@@ -10580,7 +10584,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="48" t="s">
         <v>200</v>
       </c>
@@ -10602,7 +10606,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>41275</v>
       </c>
@@ -10622,7 +10626,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41306</v>
       </c>
@@ -10642,7 +10646,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>41334</v>
       </c>
@@ -10666,7 +10670,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>41365</v>
       </c>
@@ -10692,7 +10696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <v>41395</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>41369</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>41426</v>
       </c>
@@ -10738,7 +10742,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>41456</v>
       </c>
@@ -10762,7 +10766,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>41487</v>
       </c>
@@ -10784,7 +10788,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>41518</v>
       </c>
@@ -10804,7 +10808,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>41548</v>
       </c>
@@ -10830,7 +10834,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>41579</v>
       </c>
@@ -10854,7 +10858,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>41609</v>
       </c>
@@ -10878,7 +10882,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="48" t="s">
         <v>199</v>
       </c>
@@ -10900,7 +10904,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>41640</v>
       </c>
@@ -10920,7 +10924,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>41671</v>
       </c>
@@ -10946,7 +10950,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>210</v>
@@ -10968,7 +10972,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>41699</v>
       </c>
@@ -10988,7 +10992,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>41730</v>
       </c>
@@ -11014,7 +11018,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>48</v>
@@ -11036,7 +11040,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>41760</v>
       </c>
@@ -11062,7 +11066,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>41791</v>
       </c>
@@ -11088,7 +11092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>138</v>
@@ -11108,7 +11112,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>41821</v>
       </c>
@@ -11128,7 +11132,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>41852</v>
       </c>
@@ -11148,7 +11152,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>41883</v>
       </c>
@@ -11168,7 +11172,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>41913</v>
       </c>
@@ -11188,7 +11192,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>41944</v>
       </c>
@@ -11208,7 +11212,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>41974</v>
       </c>
@@ -11232,7 +11236,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>198</v>
       </c>
@@ -11254,7 +11258,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>42005</v>
       </c>
@@ -11278,7 +11282,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>123</v>
@@ -11300,7 +11304,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>42036</v>
       </c>
@@ -11320,7 +11324,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>42064</v>
       </c>
@@ -11346,7 +11350,7 @@
         <v>42158</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>123</v>
@@ -11368,7 +11372,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>42095</v>
       </c>
@@ -11394,7 +11398,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>138</v>
@@ -11414,7 +11418,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>131</v>
@@ -11436,7 +11440,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>42125</v>
       </c>
@@ -11462,7 +11466,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>42156</v>
       </c>
@@ -11482,7 +11486,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>42186</v>
       </c>
@@ -11502,7 +11506,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>42217</v>
       </c>
@@ -11528,7 +11532,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>42248</v>
       </c>
@@ -11548,7 +11552,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>42278</v>
       </c>
@@ -11574,7 +11578,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>60</v>
@@ -11596,7 +11600,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>42309</v>
       </c>
@@ -11622,7 +11626,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>54</v>
@@ -11644,7 +11648,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>42339</v>
       </c>
@@ -11664,7 +11668,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="48" t="s">
         <v>197</v>
       </c>
@@ -11686,7 +11690,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>42370</v>
       </c>
@@ -11710,7 +11714,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>138</v>
@@ -11730,7 +11734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>42401</v>
       </c>
@@ -11750,7 +11754,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>42430</v>
       </c>
@@ -11774,7 +11778,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>119</v>
@@ -11796,7 +11800,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>123</v>
@@ -11818,7 +11822,7 @@
         <v>42465</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>42461</v>
       </c>
@@ -11838,7 +11842,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>42491</v>
       </c>
@@ -11858,7 +11862,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>42522</v>
       </c>
@@ -11878,7 +11882,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>42552</v>
       </c>
@@ -11898,7 +11902,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>42583</v>
       </c>
@@ -11924,7 +11928,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>131</v>
@@ -11946,7 +11950,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>51</v>
@@ -11968,7 +11972,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>70</v>
@@ -11990,7 +11994,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>42614</v>
       </c>
@@ -12010,7 +12014,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>42644</v>
       </c>
@@ -12036,7 +12040,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>42675</v>
       </c>
@@ -12056,7 +12060,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>42705</v>
       </c>
@@ -12076,7 +12080,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="48" t="s">
         <v>196</v>
       </c>
@@ -12098,7 +12102,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>42736</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>42767</v>
       </c>
@@ -12148,7 +12152,7 @@
         <v>42949</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>42795</v>
       </c>
@@ -12168,7 +12172,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>42826</v>
       </c>
@@ -12192,7 +12196,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>42856</v>
       </c>
@@ -12218,7 +12222,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>42887</v>
       </c>
@@ -12238,7 +12242,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>42917</v>
       </c>
@@ -12264,7 +12268,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12286,7 +12290,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>48</v>
@@ -12308,7 +12312,7 @@
         <v>42923</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>42948</v>
       </c>
@@ -12334,7 +12338,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>81</v>
@@ -12356,7 +12360,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>81</v>
@@ -12378,7 +12382,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>42979</v>
       </c>
@@ -12400,7 +12404,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>43009</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>213</v>
@@ -12448,7 +12452,7 @@
         <v>42927</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>48</v>
@@ -12468,7 +12472,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>43040</v>
       </c>
@@ -12488,7 +12492,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>43070</v>
       </c>
@@ -12508,7 +12512,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="48" t="s">
         <v>246</v>
       </c>
@@ -12530,7 +12534,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>43101</v>
       </c>
@@ -12556,7 +12560,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>43132</v>
       </c>
@@ -12582,7 +12586,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>50</v>
@@ -12604,7 +12608,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>138</v>
@@ -12624,7 +12628,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>43160</v>
       </c>
@@ -12644,7 +12648,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>43191</v>
       </c>
@@ -12664,7 +12668,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>43221</v>
       </c>
@@ -12690,7 +12694,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>138</v>
@@ -12710,7 +12714,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>50</v>
@@ -12732,7 +12736,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>43252</v>
       </c>
@@ -12758,7 +12762,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -12778,7 +12782,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>43282</v>
       </c>
@@ -12802,7 +12806,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>43313</v>
       </c>
@@ -12828,7 +12832,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>43344</v>
       </c>
@@ -12848,7 +12852,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>43374</v>
       </c>
@@ -12868,7 +12872,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>43405</v>
       </c>
@@ -12894,7 +12898,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>43435</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="48" t="s">
         <v>245</v>
       </c>
@@ -12942,7 +12946,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>43466</v>
       </c>
@@ -12968,7 +12972,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>43497</v>
       </c>
@@ -12988,7 +12992,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>43525</v>
       </c>
@@ -13014,7 +13018,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>43556</v>
       </c>
@@ -13040,7 +13044,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -13062,7 +13066,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>43586</v>
       </c>
@@ -13088,7 +13092,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>43617</v>
       </c>
@@ -13108,7 +13112,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>43647</v>
       </c>
@@ -13128,7 +13132,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>43678</v>
       </c>
@@ -13148,7 +13152,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>43709</v>
       </c>
@@ -13172,7 +13176,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>54</v>
@@ -13194,7 +13198,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43739</v>
       </c>
@@ -13214,7 +13218,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>43770</v>
       </c>
@@ -13234,7 +13238,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>43800</v>
       </c>
@@ -13260,7 +13264,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="48" t="s">
         <v>244</v>
       </c>
@@ -13282,7 +13286,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>43831</v>
       </c>
@@ -13308,7 +13312,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>43862</v>
       </c>
@@ -13328,7 +13332,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>43891</v>
       </c>
@@ -13348,7 +13352,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>43922</v>
       </c>
@@ -13368,7 +13372,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>43952</v>
       </c>
@@ -13392,7 +13396,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>43983</v>
       </c>
@@ -13412,7 +13416,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>44013</v>
       </c>
@@ -13432,7 +13436,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>44044</v>
       </c>
@@ -13452,7 +13456,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>44075</v>
       </c>
@@ -13472,7 +13476,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>44105</v>
       </c>
@@ -13492,7 +13496,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>44136</v>
       </c>
@@ -13512,7 +13516,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>44166</v>
       </c>
@@ -13538,7 +13542,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>138</v>
@@ -13558,7 +13562,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>123</v>
@@ -13578,7 +13582,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="48" t="s">
         <v>243</v>
       </c>
@@ -13600,7 +13604,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>44197</v>
       </c>
@@ -13620,7 +13624,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>44228</v>
       </c>
@@ -13640,7 +13644,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>44256</v>
       </c>
@@ -13660,7 +13664,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>44287</v>
       </c>
@@ -13684,7 +13688,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>44317</v>
       </c>
@@ -13704,7 +13708,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>44348</v>
       </c>
@@ -13724,7 +13728,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>44378</v>
       </c>
@@ -13744,7 +13748,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>44409</v>
       </c>
@@ -13770,7 +13774,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>44440</v>
       </c>
@@ -13790,7 +13794,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44470</v>
       </c>
@@ -13810,7 +13814,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>44501</v>
       </c>
@@ -13834,7 +13838,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>51</v>
@@ -13856,7 +13860,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>44531</v>
       </c>
@@ -13880,7 +13884,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="48" t="s">
         <v>242</v>
       </c>
@@ -13902,7 +13906,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>44562</v>
       </c>
@@ -13926,7 +13930,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>60</v>
@@ -13946,7 +13950,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44593</v>
       </c>
@@ -13972,7 +13976,7 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>44621</v>
       </c>
@@ -13992,7 +13996,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>44652</v>
       </c>
@@ -14012,7 +14016,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>44682</v>
       </c>
@@ -14036,7 +14040,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>131</v>
@@ -14058,7 +14062,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>289</v>
@@ -14080,7 +14084,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>44713</v>
       </c>
@@ -14100,7 +14104,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>44743</v>
       </c>
@@ -14126,7 +14130,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>54</v>
@@ -14148,7 +14152,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>54</v>
@@ -14170,7 +14174,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -14192,7 +14196,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>44774</v>
       </c>
@@ -14218,7 +14222,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>48</v>
@@ -14240,7 +14244,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>44805</v>
       </c>
@@ -14266,7 +14270,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>44835</v>
       </c>
@@ -14286,7 +14290,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>44866</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>131</v>
@@ -14334,7 +14338,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>54</v>
@@ -14356,7 +14360,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44896</v>
       </c>
@@ -14382,7 +14386,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="48" t="s">
         <v>288</v>
       </c>
@@ -14400,7 +14404,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44927</v>
       </c>
@@ -14424,7 +14428,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44958</v>
       </c>
@@ -14444,7 +14448,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44986</v>
       </c>
@@ -14470,7 +14474,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>138</v>
@@ -14490,7 +14494,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>45017</v>
       </c>
@@ -14516,7 +14520,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>45047</v>
       </c>
@@ -14536,7 +14540,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>45078</v>
       </c>
@@ -14556,7 +14560,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>45108</v>
       </c>
@@ -14576,7 +14580,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>45139</v>
       </c>
@@ -14600,7 +14604,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>45170</v>
       </c>
@@ -14620,7 +14624,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>45200</v>
       </c>
@@ -14640,7 +14644,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>45231</v>
       </c>
@@ -14660,7 +14664,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>45261</v>
       </c>
@@ -14680,7 +14684,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="48" t="s">
         <v>296</v>
       </c>
@@ -14695,20 +14699,22 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>45292</v>
       </c>
       <c r="B493" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C493" s="13"/>
+      <c r="C493" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D493" s="39"/>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G493" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H493" s="39">
         <v>3</v>
@@ -14719,11 +14725,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B494" s="20"/>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494" s="40"/>
+      <c r="B494" s="20" t="s">
+        <v>183</v>
+      </c>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
       <c r="E494" s="9"/>
@@ -14735,11 +14741,13 @@
       <c r="H494" s="39"/>
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
-      <c r="K494" s="20"/>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K494" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14755,9 +14763,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14773,9 +14781,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14791,9 +14799,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14809,9 +14817,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14827,9 +14835,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14845,9 +14853,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14863,9 +14871,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14881,9 +14889,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14899,9 +14907,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14917,9 +14925,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14935,9 +14943,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14953,9 +14961,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14971,9 +14979,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14989,9 +14997,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15007,9 +15015,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15025,9 +15033,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15043,9 +15051,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15061,9 +15069,9 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15079,9 +15087,9 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15097,9 +15105,9 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15115,9 +15123,9 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15133,9 +15141,9 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15151,9 +15159,9 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15169,9 +15177,9 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15187,9 +15195,9 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15205,9 +15213,9 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15223,9 +15231,9 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15241,9 +15249,9 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15259,9 +15267,9 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15277,9 +15285,9 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15295,9 +15303,9 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15313,9 +15321,9 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15331,9 +15339,9 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15349,9 +15357,9 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15367,9 +15375,9 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15385,9 +15393,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15403,9 +15411,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15421,9 +15429,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15439,9 +15447,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15457,9 +15465,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15475,9 +15483,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15493,9 +15501,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15511,9 +15519,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15529,9 +15537,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15547,9 +15555,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15565,9 +15573,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15583,9 +15591,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15601,9 +15609,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15619,9 +15627,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15637,9 +15645,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -15655,9 +15663,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -15673,9 +15681,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -15691,9 +15699,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -15709,9 +15717,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -15727,9 +15735,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -15745,9 +15753,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -15763,9 +15771,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15781,9 +15789,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15799,9 +15807,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15817,9 +15825,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15835,9 +15843,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15853,9 +15861,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15871,9 +15879,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15889,9 +15897,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15907,9 +15915,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15925,9 +15933,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15943,9 +15951,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15961,8 +15969,10 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40"/>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A563" s="40">
+        <v>47392</v>
+      </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
       <c r="D563" s="39"/>
@@ -15977,7 +15987,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15993,7 +16003,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16009,7 +16019,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16025,7 +16035,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16041,7 +16051,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16057,7 +16067,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16073,7 +16083,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16089,7 +16099,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16105,7 +16115,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16121,7 +16131,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16137,7 +16147,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16153,7 +16163,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16169,7 +16179,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16185,7 +16195,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16201,7 +16211,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16217,7 +16227,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16233,7 +16243,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16249,7 +16259,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16265,7 +16275,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16281,7 +16291,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16297,7 +16307,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16313,7 +16323,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16329,7 +16339,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16345,7 +16355,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16361,7 +16371,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16377,7 +16387,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16393,7 +16403,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16409,7 +16419,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16425,7 +16435,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16441,7 +16451,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16457,7 +16467,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16473,7 +16483,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16489,7 +16499,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16505,7 +16515,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16521,21 +16531,37 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="41"/>
-      <c r="B598" s="15"/>
-      <c r="C598" s="42"/>
-      <c r="D598" s="43"/>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A598" s="40"/>
+      <c r="B598" s="20"/>
+      <c r="C598" s="13"/>
+      <c r="D598" s="39"/>
       <c r="E598" s="9"/>
-      <c r="F598" s="15"/>
-      <c r="G598" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H598" s="43"/>
+      <c r="F598" s="20"/>
+      <c r="G598" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H598" s="39"/>
       <c r="I598" s="9"/>
-      <c r="J598" s="12"/>
-      <c r="K598" s="15"/>
+      <c r="J598" s="11"/>
+      <c r="K598" s="20"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A599" s="41"/>
+      <c r="B599" s="15"/>
+      <c r="C599" s="42"/>
+      <c r="D599" s="43"/>
+      <c r="E599" s="9"/>
+      <c r="F599" s="15"/>
+      <c r="G599" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H599" s="43"/>
+      <c r="I599" s="9"/>
+      <c r="J599" s="12"/>
+      <c r="K599" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16552,10 +16578,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16578,7 +16604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16586,21 +16612,21 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -16613,7 +16639,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16642,7 +16668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -16670,17 +16696,17 @@
         <v>0.45799999999999985</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>295</v>
       </c>
@@ -16704,10 +16730,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>503.66799999999995</v>
+        <v>506.16799999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16735,7 +16761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16761,7 +16787,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16787,7 +16813,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16813,7 +16839,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16839,7 +16865,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16865,7 +16891,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16891,7 +16917,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16917,7 +16943,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16937,7 +16963,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16957,7 +16983,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16977,7 +17003,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16998,7 +17024,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17019,7 +17045,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17040,7 +17066,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17061,7 +17087,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17082,7 +17108,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17103,7 +17129,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17124,7 +17150,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17145,7 +17171,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17166,7 +17192,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17187,7 +17213,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17208,7 +17234,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17229,7 +17255,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17250,7 +17276,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17271,7 +17297,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17292,7 +17318,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17313,7 +17339,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17334,7 +17360,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17355,7 +17381,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17376,7 +17402,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17397,7 +17423,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17406,7 +17432,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17415,7 +17441,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17424,7 +17450,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17433,7 +17459,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17442,7 +17468,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17451,7 +17477,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17460,7 +17486,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17469,7 +17495,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17478,7 +17504,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17487,7 +17513,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17496,7 +17522,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17505,7 +17531,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17514,7 +17540,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17523,7 +17549,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17532,7 +17558,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17541,7 +17567,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17550,7 +17576,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17559,7 +17585,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17568,7 +17594,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17577,7 +17603,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17586,7 +17612,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17595,7 +17621,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17604,7 +17630,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17613,7 +17639,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17622,7 +17648,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17631,7 +17657,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17640,7 +17666,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17649,7 +17675,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17658,7 +17684,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
